--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gas6-Axl.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gas6-Axl.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.8666310590329</v>
+        <v>20.97917533333333</v>
       </c>
       <c r="H2">
-        <v>15.8666310590329</v>
+        <v>62.93752600000001</v>
       </c>
       <c r="I2">
-        <v>0.2028614907447242</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="J2">
-        <v>0.2028614907447242</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.17620298757014</v>
+        <v>2.521994666666667</v>
       </c>
       <c r="N2">
-        <v>2.17620298757014</v>
+        <v>7.565983999999999</v>
       </c>
       <c r="O2">
-        <v>0.01109785547973687</v>
+        <v>0.01218715015226367</v>
       </c>
       <c r="P2">
-        <v>0.01109785547973687</v>
+        <v>0.01218715015226367</v>
       </c>
       <c r="Q2">
-        <v>34.52900991334057</v>
+        <v>52.90936830173155</v>
       </c>
       <c r="R2">
-        <v>34.52900991334057</v>
+        <v>476.184314715584</v>
       </c>
       <c r="S2">
-        <v>0.002251327506688928</v>
+        <v>0.002988157910008404</v>
       </c>
       <c r="T2">
-        <v>0.002251327506688928</v>
+        <v>0.002988157910008404</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.8666310590329</v>
+        <v>20.97917533333333</v>
       </c>
       <c r="H3">
-        <v>15.8666310590329</v>
+        <v>62.93752600000001</v>
       </c>
       <c r="I3">
-        <v>0.2028614907447242</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="J3">
-        <v>0.2028614907447242</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>156.509849165312</v>
+        <v>157.1645253333333</v>
       </c>
       <c r="N3">
-        <v>156.509849165312</v>
+        <v>471.493576</v>
       </c>
       <c r="O3">
-        <v>0.7981441515855227</v>
+        <v>0.7594733225102963</v>
       </c>
       <c r="P3">
-        <v>0.7981441515855227</v>
+        <v>0.7594733225102964</v>
       </c>
       <c r="Q3">
-        <v>2483.284033810894</v>
+        <v>3297.182133148108</v>
       </c>
       <c r="R3">
-        <v>2483.284033810894</v>
+        <v>29674.63919833298</v>
       </c>
       <c r="S3">
-        <v>0.1619127124198222</v>
+        <v>0.1862146759288083</v>
       </c>
       <c r="T3">
-        <v>0.1619127124198222</v>
+        <v>0.1862146759288083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.8666310590329</v>
+        <v>20.97917533333333</v>
       </c>
       <c r="H4">
-        <v>15.8666310590329</v>
+        <v>62.93752600000001</v>
       </c>
       <c r="I4">
-        <v>0.2028614907447242</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="J4">
-        <v>0.2028614907447242</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.4061560709122</v>
+        <v>47.252316</v>
       </c>
       <c r="N4">
-        <v>37.4061560709122</v>
+        <v>141.756948</v>
       </c>
       <c r="O4">
-        <v>0.1907579929347404</v>
+        <v>0.2283395273374399</v>
       </c>
       <c r="P4">
-        <v>0.1907579929347404</v>
+        <v>0.2283395273374399</v>
       </c>
       <c r="Q4">
-        <v>593.5096777137676</v>
+        <v>991.3146222700721</v>
       </c>
       <c r="R4">
-        <v>593.5096777137676</v>
+        <v>8921.831600430649</v>
       </c>
       <c r="S4">
-        <v>0.038697450818213</v>
+        <v>0.05598639191740955</v>
       </c>
       <c r="T4">
-        <v>0.038697450818213</v>
+        <v>0.05598639191740955</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>58.3598083879008</v>
+        <v>59.05285266666667</v>
       </c>
       <c r="H5">
-        <v>58.3598083879008</v>
+        <v>177.158558</v>
       </c>
       <c r="I5">
-        <v>0.7461544725593198</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="J5">
-        <v>0.7461544725593198</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.17620298757014</v>
+        <v>2.521994666666667</v>
       </c>
       <c r="N5">
-        <v>2.17620298757014</v>
+        <v>7.565983999999999</v>
       </c>
       <c r="O5">
-        <v>0.01109785547973687</v>
+        <v>0.01218715015226367</v>
       </c>
       <c r="P5">
-        <v>0.01109785547973687</v>
+        <v>0.01218715015226367</v>
       </c>
       <c r="Q5">
-        <v>127.0027893677706</v>
+        <v>148.9309794767858</v>
       </c>
       <c r="R5">
-        <v>127.0027893677706</v>
+        <v>1340.378815291072</v>
       </c>
       <c r="S5">
-        <v>0.008280714502022623</v>
+        <v>0.008411162307418672</v>
       </c>
       <c r="T5">
-        <v>0.008280714502022623</v>
+        <v>0.008411162307418672</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>58.3598083879008</v>
+        <v>59.05285266666667</v>
       </c>
       <c r="H6">
-        <v>58.3598083879008</v>
+        <v>177.158558</v>
       </c>
       <c r="I6">
-        <v>0.7461544725593198</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="J6">
-        <v>0.7461544725593198</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>156.509849165312</v>
+        <v>157.1645253333333</v>
       </c>
       <c r="N6">
-        <v>156.509849165312</v>
+        <v>471.493576</v>
       </c>
       <c r="O6">
-        <v>0.7981441515855227</v>
+        <v>0.7594733225102963</v>
       </c>
       <c r="P6">
-        <v>0.7981441515855227</v>
+        <v>0.7594733225102964</v>
       </c>
       <c r="Q6">
-        <v>9133.884808106865</v>
+        <v>9281.013558935934</v>
       </c>
       <c r="R6">
-        <v>9133.884808106865</v>
+        <v>83529.12203042342</v>
       </c>
       <c r="S6">
-        <v>0.5955388284526014</v>
+        <v>0.5241630162899156</v>
       </c>
       <c r="T6">
-        <v>0.5955388284526014</v>
+        <v>0.5241630162899157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>58.3598083879008</v>
+        <v>59.05285266666667</v>
       </c>
       <c r="H7">
-        <v>58.3598083879008</v>
+        <v>177.158558</v>
       </c>
       <c r="I7">
-        <v>0.7461544725593198</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="J7">
-        <v>0.7461544725593198</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.4061560709122</v>
+        <v>47.252316</v>
       </c>
       <c r="N7">
-        <v>37.4061560709122</v>
+        <v>141.756948</v>
       </c>
       <c r="O7">
-        <v>0.1907579929347404</v>
+        <v>0.2283395273374399</v>
       </c>
       <c r="P7">
-        <v>0.1907579929347404</v>
+        <v>0.2283395273374399</v>
       </c>
       <c r="Q7">
-        <v>2183.016100826349</v>
+        <v>2790.384054906776</v>
       </c>
       <c r="R7">
-        <v>2183.016100826349</v>
+        <v>25113.45649416098</v>
       </c>
       <c r="S7">
-        <v>0.1423349296046957</v>
+        <v>0.1575922838103158</v>
       </c>
       <c r="T7">
-        <v>0.1423349296046957</v>
+        <v>0.1575922838103158</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.98767108131373</v>
+        <v>5.531174333333333</v>
       </c>
       <c r="H8">
-        <v>3.98767108131373</v>
+        <v>16.593523</v>
       </c>
       <c r="I8">
-        <v>0.05098403669595606</v>
+        <v>0.06464431183612354</v>
       </c>
       <c r="J8">
-        <v>0.05098403669595606</v>
+        <v>0.06464431183612354</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.17620298757014</v>
+        <v>2.521994666666667</v>
       </c>
       <c r="N8">
-        <v>2.17620298757014</v>
+        <v>7.565983999999999</v>
       </c>
       <c r="O8">
-        <v>0.01109785547973687</v>
+        <v>0.01218715015226367</v>
       </c>
       <c r="P8">
-        <v>0.01109785547973687</v>
+        <v>0.01218715015226367</v>
       </c>
       <c r="Q8">
-        <v>8.67798172060199</v>
+        <v>13.94959216907022</v>
       </c>
       <c r="R8">
-        <v>8.67798172060199</v>
+        <v>125.546329521632</v>
       </c>
       <c r="S8">
-        <v>0.0005658134710253217</v>
+        <v>0.0007878299348365931</v>
       </c>
       <c r="T8">
-        <v>0.0005658134710253217</v>
+        <v>0.0007878299348365931</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.98767108131373</v>
+        <v>5.531174333333333</v>
       </c>
       <c r="H9">
-        <v>3.98767108131373</v>
+        <v>16.593523</v>
       </c>
       <c r="I9">
-        <v>0.05098403669595606</v>
+        <v>0.06464431183612354</v>
       </c>
       <c r="J9">
-        <v>0.05098403669595606</v>
+        <v>0.06464431183612354</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>156.509849165312</v>
+        <v>157.1645253333333</v>
       </c>
       <c r="N9">
-        <v>156.509849165312</v>
+        <v>471.493576</v>
       </c>
       <c r="O9">
-        <v>0.7981441515855227</v>
+        <v>0.7594733225102963</v>
       </c>
       <c r="P9">
-        <v>0.7981441515855227</v>
+        <v>0.7594733225102964</v>
       </c>
       <c r="Q9">
-        <v>624.1097994572885</v>
+        <v>869.3043886342498</v>
       </c>
       <c r="R9">
-        <v>624.1097994572885</v>
+        <v>7823.739497708249</v>
       </c>
       <c r="S9">
-        <v>0.040692610713099</v>
+        <v>0.04909563029157242</v>
       </c>
       <c r="T9">
-        <v>0.040692610713099</v>
+        <v>0.04909563029157243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.98767108131373</v>
+        <v>5.531174333333333</v>
       </c>
       <c r="H10">
-        <v>3.98767108131373</v>
+        <v>16.593523</v>
       </c>
       <c r="I10">
-        <v>0.05098403669595606</v>
+        <v>0.06464431183612354</v>
       </c>
       <c r="J10">
-        <v>0.05098403669595606</v>
+        <v>0.06464431183612354</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>37.4061560709122</v>
+        <v>47.252316</v>
       </c>
       <c r="N10">
-        <v>37.4061560709122</v>
+        <v>141.756948</v>
       </c>
       <c r="O10">
-        <v>0.1907579929347404</v>
+        <v>0.2283395273374399</v>
       </c>
       <c r="P10">
-        <v>0.1907579929347404</v>
+        <v>0.2283395273374399</v>
       </c>
       <c r="Q10">
-        <v>149.1634468270846</v>
+        <v>261.360797449756</v>
       </c>
       <c r="R10">
-        <v>149.1634468270846</v>
+        <v>2352.247177047804</v>
       </c>
       <c r="S10">
-        <v>0.009725612511831731</v>
+        <v>0.01476085160971452</v>
       </c>
       <c r="T10">
-        <v>0.009725612511831731</v>
+        <v>0.01476085160971452</v>
       </c>
     </row>
   </sheetData>
